--- a/Avaliação de evidências.xlsx
+++ b/Avaliação de evidências.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>Nome do projeto</t>
   </si>
@@ -163,6 +163,9 @@
 (Analista)</t>
   </si>
   <si>
+    <t>Analista/Vision.docx</t>
+  </si>
+  <si>
     <t>Documento de requisitos - System-Wide Requirements
 (Analista)</t>
   </si>
@@ -188,6 +191,9 @@
   <si>
     <t>Casos de teste - Test Case
 (Testador)</t>
+  </si>
+  <si>
+    <t>Testador/Casos de teste.odt</t>
   </si>
   <si>
     <t>Nota - Projeto - Papel</t>
@@ -213,8 +219,8 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -254,11 +260,63 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -267,7 +325,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,32 +347,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,14 +387,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -356,59 +409,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -443,13 +449,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,169 +623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +705,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,9 +742,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,178 +798,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1393,8 +1399,8 @@
   <sheetPr/>
   <dimension ref="B2:J1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1683,7 +1689,9 @@
       <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -1697,7 +1705,7 @@
     </row>
     <row r="20" ht="30.75" customHeight="1" spans="2:10">
       <c r="B20" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
@@ -1713,7 +1721,7 @@
     </row>
     <row r="21" ht="30.75" customHeight="1" spans="2:10">
       <c r="B21" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
@@ -1729,7 +1737,7 @@
     </row>
     <row r="22" ht="30.75" customHeight="1" spans="2:10">
       <c r="B22" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
@@ -1745,7 +1753,7 @@
     </row>
     <row r="23" ht="30.75" customHeight="1" spans="2:10">
       <c r="B23" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
@@ -1761,10 +1769,10 @@
     </row>
     <row r="24" ht="30.75" customHeight="1" spans="2:10">
       <c r="B24" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -1779,9 +1787,11 @@
     </row>
     <row r="25" ht="30.75" customHeight="1" spans="2:10">
       <c r="B25" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="16"/>
+        <v>36</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -1795,7 +1805,7 @@
     </row>
     <row r="26" ht="30.75" customHeight="1" spans="3:9">
       <c r="C26" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D26" s="18" t="e">
         <f t="shared" ref="D26:H26" si="1">SUM(D12:D25)/COUNTA(D12:D25)</f>
@@ -1821,7 +1831,7 @@
     </row>
     <row r="27" ht="30.75" customHeight="1" spans="3:9">
       <c r="C27" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" ref="D27:H27" si="2">$I$27</f>
@@ -1850,7 +1860,7 @@
     </row>
     <row r="28" ht="30.75" customHeight="1" spans="3:9">
       <c r="C28" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D28" s="18" t="e">
         <f t="shared" ref="D28:H28" si="3">(D26*3+D27)/4</f>
@@ -1876,7 +1886,7 @@
     </row>
     <row r="29" ht="30.75" customHeight="1" spans="3:9">
       <c r="C29" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -1887,7 +1897,7 @@
     </row>
     <row r="30" ht="30.75" customHeight="1" spans="3:9">
       <c r="C30" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D30" s="19" t="e">
         <f t="shared" ref="D30:H30" si="4">ROUND((D29*0.1)+(D28*0.9),1)</f>
@@ -1928,7 +1938,7 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="B4:C5"/>
   </mergeCells>
-  <pageMargins left="0.511111111111111" right="0.511111111111111" top="0.7875" bottom="0.7875" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.510416666666667" right="0.510416666666667" top="0.7875" bottom="0.7875" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
